--- a/forecast_summary_B083NPKL1C.xlsx
+++ b/forecast_summary_B083NPKL1C.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,11 @@
           <t>Product Title</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -488,7 +493,7 @@
         <v>-237.0756491302049</v>
       </c>
       <c r="D2" t="n">
-        <v>-201.4672162013179</v>
+        <v>-200.8262346059406</v>
       </c>
       <c r="E2" t="n">
         <v>2</v>
@@ -511,6 +516,9 @@
         <is>
           <t>Z690 AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -524,7 +532,7 @@
         <v>-532.4235502572728</v>
       </c>
       <c r="D3" t="n">
-        <v>-493.5620014549842</v>
+        <v>-495.5017767487309</v>
       </c>
       <c r="E3" t="n">
         <v>2</v>
@@ -547,6 +555,9 @@
         <is>
           <t>Z690 AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -560,7 +571,7 @@
         <v>-665.2618728853683</v>
       </c>
       <c r="D4" t="n">
-        <v>-628.4410267561617</v>
+        <v>-629.0597183822333</v>
       </c>
       <c r="E4" t="n">
         <v>2</v>
@@ -583,6 +594,9 @@
         <is>
           <t>Z690 AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -596,7 +610,7 @@
         <v>-504.8079489232981</v>
       </c>
       <c r="D5" t="n">
-        <v>-468.795656003032</v>
+        <v>-467.5222551041225</v>
       </c>
       <c r="E5" t="n">
         <v>2</v>
@@ -619,6 +633,9 @@
         <is>
           <t>Z690 AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,7 +649,7 @@
         <v>-151.3172657815025</v>
       </c>
       <c r="D6" t="n">
-        <v>-114.4214838330107</v>
+        <v>-117.177382763052</v>
       </c>
       <c r="E6" t="n">
         <v>2</v>
@@ -655,6 +672,9 @@
         <is>
           <t>Z690 AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -662,13 +682,13 @@
         <v>45655</v>
       </c>
       <c r="B7" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C7" t="n">
         <v>140.7663571750265</v>
       </c>
       <c r="D7" t="n">
-        <v>178.6510250078258</v>
+        <v>175.4739689802477</v>
       </c>
       <c r="E7" t="n">
         <v>2</v>
@@ -691,6 +711,9 @@
         <is>
           <t>Z690 AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -704,7 +727,7 @@
         <v>193.1690753618803</v>
       </c>
       <c r="D8" t="n">
-        <v>230.0979565091949</v>
+        <v>229.3193280584207</v>
       </c>
       <c r="E8" t="n">
         <v>2</v>
@@ -727,6 +750,9 @@
         <is>
           <t>Z690 AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -740,7 +766,7 @@
         <v>53.30821529488345</v>
       </c>
       <c r="D9" t="n">
-        <v>90.4589642333558</v>
+        <v>90.30674344960069</v>
       </c>
       <c r="E9" t="n">
         <v>2</v>
@@ -763,6 +789,9 @@
         <is>
           <t>Z690 AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -776,7 +805,7 @@
         <v>-86.57458995466322</v>
       </c>
       <c r="D10" t="n">
-        <v>-53.39035110581387</v>
+        <v>-50.34119223660839</v>
       </c>
       <c r="E10" t="n">
         <v>2</v>
@@ -799,6 +828,9 @@
         <is>
           <t>Z690 AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -812,7 +844,7 @@
         <v>-99.99239146464724</v>
       </c>
       <c r="D11" t="n">
-        <v>-61.65189044050742</v>
+        <v>-64.14030909258305</v>
       </c>
       <c r="E11" t="n">
         <v>2</v>
@@ -835,6 +867,9 @@
         <is>
           <t>Z690 AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -848,7 +883,7 @@
         <v>-32.79379833926957</v>
       </c>
       <c r="D12" t="n">
-        <v>4.848288004163434</v>
+        <v>3.326135653468009</v>
       </c>
       <c r="E12" t="n">
         <v>2</v>
@@ -871,6 +906,9 @@
         <is>
           <t>Z690 AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -884,7 +922,7 @@
         <v>-4.64225512902605</v>
       </c>
       <c r="D13" t="n">
-        <v>32.22945976057305</v>
+        <v>31.18864503404557</v>
       </c>
       <c r="E13" t="n">
         <v>2</v>
@@ -907,6 +945,9 @@
         <is>
           <t>Z690 AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -920,7 +961,7 @@
         <v>-42.46367427266189</v>
       </c>
       <c r="D14" t="n">
-        <v>-6.467034053298022</v>
+        <v>-5.539633322724471</v>
       </c>
       <c r="E14" t="n">
         <v>2</v>
@@ -943,6 +984,9 @@
         <is>
           <t>Z690 AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -956,7 +1000,7 @@
         <v>-48.70058841065123</v>
       </c>
       <c r="D15" t="n">
-        <v>-13.67657335751486</v>
+        <v>-12.45373870877257</v>
       </c>
       <c r="E15" t="n">
         <v>2</v>
@@ -979,6 +1023,9 @@
         <is>
           <t>Z690 AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -992,7 +1039,7 @@
         <v>66.6592868341783</v>
       </c>
       <c r="D16" t="n">
-        <v>102.2278550659176</v>
+        <v>101.4957961652783</v>
       </c>
       <c r="E16" t="n">
         <v>2</v>
@@ -1015,6 +1062,9 @@
         <is>
           <t>Z690 AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1028,7 +1078,7 @@
         <v>258.7121818390141</v>
       </c>
       <c r="D17" t="n">
-        <v>294.9175010274087</v>
+        <v>294.1537807994901</v>
       </c>
       <c r="E17" t="n">
         <v>2</v>
@@ -1051,6 +1101,9 @@
         <is>
           <t>Z690 AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1058,13 +1111,13 @@
         <v>45732</v>
       </c>
       <c r="B18" t="n">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C18" t="n">
         <v>380.7143690840532</v>
       </c>
       <c r="D18" t="n">
-        <v>417.7622702118191</v>
+        <v>418.787925710915</v>
       </c>
       <c r="E18" t="n">
         <v>2</v>
@@ -1087,6 +1140,9 @@
         <is>
           <t>Z690 AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1100,7 +1156,7 @@
         <v>337.0474509368639</v>
       </c>
       <c r="D19" t="n">
-        <v>373.3985117969492</v>
+        <v>373.1485033637681</v>
       </c>
       <c r="E19" t="n">
         <v>2</v>
@@ -1123,6 +1179,9 @@
         <is>
           <t>Z690 AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1136,7 +1195,7 @@
         <v>177.6025678787785</v>
       </c>
       <c r="D20" t="n">
-        <v>215.7126562782567</v>
+        <v>213.8277781878361</v>
       </c>
       <c r="E20" t="n">
         <v>2</v>
@@ -1159,6 +1218,9 @@
         <is>
           <t>Z690 AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1166,13 +1228,13 @@
         <v>45753</v>
       </c>
       <c r="B21" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C21" t="n">
         <v>33.78757772831315</v>
       </c>
       <c r="D21" t="n">
-        <v>71.81974407878234</v>
+        <v>70.83603673505836</v>
       </c>
       <c r="E21" t="n">
         <v>2</v>
@@ -1195,6 +1257,9 @@
         <is>
           <t>Z690 AORUS ELITE AX</t>
         </is>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1320,7 +1385,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>731</t>
+          <t>730</t>
         </is>
       </c>
     </row>
@@ -1332,7 +1397,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>398</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1421,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>385</t>
         </is>
       </c>
     </row>
